--- a/SuppXLS/Scen_UC_Costupdate.xlsx
+++ b/SuppXLS/Scen_UC_Costupdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A2F14-136A-42B8-8E93-8BA1FBE20D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C071ADF9-7FC5-46D7-8D68-34A0972DA272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="1884" windowWidth="21600" windowHeight="11232" xr2:uid="{11B4A3C4-816A-4862-A163-A26D2ADE20D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11B4A3C4-816A-4862-A163-A26D2ADE20D9}"/>
   </bookViews>
   <sheets>
     <sheet name="REF_TECH10_reduction" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Cset_CD</t>
-  </si>
-  <si>
-    <t>IRE</t>
   </si>
   <si>
     <t>*0.9</t>
@@ -625,7 +622,7 @@
   <dimension ref="B1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -696,104 +693,86 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2030</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2030</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2030</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2050</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2050</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2050</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_UC_Costupdate.xlsx
+++ b/SuppXLS/Scen_UC_Costupdate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C071ADF9-7FC5-46D7-8D68-34A0972DA272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63D92BD-D724-451E-9082-C452E0334DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11B4A3C4-816A-4862-A163-A26D2ADE20D9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11B4A3C4-816A-4862-A163-A26D2ADE20D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="REF_TECH10_reduction" sheetId="1" r:id="rId1"/>
+    <sheet name="Costupdate" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Cset_CD</t>
-  </si>
-  <si>
-    <t>*0.9</t>
   </si>
   <si>
     <t>SOLPV</t>
@@ -619,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6FB8B5-B7CF-4B8D-B037-F8BB5982E646}">
-  <dimension ref="B1:Q8"/>
+  <dimension ref="B1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -633,6 +630,7 @@
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -693,86 +691,35 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>2030</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>2030</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>2030</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2050</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2050</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>2050</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
